--- a/main/ig/CodeSystem-as-cs-type-systeme-information.xlsx
+++ b/main/ig/CodeSystem-as-cs-type-systeme-information.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-10T16:21:11+00:00</t>
+    <t>2024-10-10T16:26:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/CodeSystem-as-cs-type-systeme-information.xlsx
+++ b/main/ig/CodeSystem-as-cs-type-systeme-information.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-10T16:26:55+00:00</t>
+    <t>2024-10-10T16:40:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/CodeSystem-as-cs-type-systeme-information.xlsx
+++ b/main/ig/CodeSystem-as-cs-type-systeme-information.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-10T16:40:38+00:00</t>
+    <t>2024-10-11T14:20:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/CodeSystem-as-cs-type-systeme-information.xlsx
+++ b/main/ig/CodeSystem-as-cs-type-systeme-information.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-11T14:20:05+00:00</t>
+    <t>2024-10-31T12:52:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/CodeSystem-as-cs-type-systeme-information.xlsx
+++ b/main/ig/CodeSystem-as-cs-type-systeme-information.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-31T12:52:49+00:00</t>
+    <t>2024-11-05T10:01:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/CodeSystem-as-cs-type-systeme-information.xlsx
+++ b/main/ig/CodeSystem-as-cs-type-systeme-information.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-05T10:01:35+00:00</t>
+    <t>2024-11-08T16:53:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/CodeSystem-as-cs-type-systeme-information.xlsx
+++ b/main/ig/CodeSystem-as-cs-type-systeme-information.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-08T16:53:16+00:00</t>
+    <t>2024-11-08T17:02:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/CodeSystem-as-cs-type-systeme-information.xlsx
+++ b/main/ig/CodeSystem-as-cs-type-systeme-information.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-08T17:02:00+00:00</t>
+    <t>2024-11-08T17:33:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/CodeSystem-as-cs-type-systeme-information.xlsx
+++ b/main/ig/CodeSystem-as-cs-type-systeme-information.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-08T17:33:21+00:00</t>
+    <t>2024-11-13T21:35:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/CodeSystem-as-cs-type-systeme-information.xlsx
+++ b/main/ig/CodeSystem-as-cs-type-systeme-information.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.0-snapshot-4</t>
+    <t>1.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-13T21:35:06+00:00</t>
+    <t>2024-11-14T08:22:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/CodeSystem-as-cs-type-systeme-information.xlsx
+++ b/main/ig/CodeSystem-as-cs-type-systeme-information.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-14T08:22:05+00:00</t>
+    <t>2024-11-18T16:15:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/CodeSystem-as-cs-type-systeme-information.xlsx
+++ b/main/ig/CodeSystem-as-cs-type-systeme-information.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-18T16:15:50+00:00</t>
+    <t>2024-12-02T14:05:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/CodeSystem-as-cs-type-systeme-information.xlsx
+++ b/main/ig/CodeSystem-as-cs-type-systeme-information.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="49">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-02T14:05:36+00:00</t>
+    <t>2025-01-15T07:47:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -94,6 +94,9 @@
   </si>
   <si>
     <t>Case Sensitive</t>
+  </si>
+  <si>
+    <t>true</t>
   </si>
   <si>
     <t>Value Set (all codes)</t>
@@ -412,52 +415,54 @@
       <c r="A15" t="s" s="2">
         <v>26</v>
       </c>
-      <c r="B15" s="2"/>
+      <c r="B15" t="s" s="2">
+        <v>27</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B16" s="2"/>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B17" s="2"/>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B18" s="2"/>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B19" s="2"/>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B21" s="2"/>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -475,58 +480,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C1" t="s" s="1">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D1" t="s" s="1">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C2" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D2" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C3" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D3" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C4" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D4" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/main/ig/CodeSystem-as-cs-type-systeme-information.xlsx
+++ b/main/ig/CodeSystem-as-cs-type-systeme-information.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-15T07:47:50+00:00</t>
+    <t>2025-01-27T16:40:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/CodeSystem-as-cs-type-systeme-information.xlsx
+++ b/main/ig/CodeSystem-as-cs-type-systeme-information.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-27T16:40:24+00:00</t>
+    <t>2025-01-27T17:01:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
